--- a/test_clusters.xlsx
+++ b/test_clusters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>kamino</t>
   </si>
@@ -99,6 +99,207 @@
   </si>
   <si>
     <t>bataungi</t>
+  </si>
+  <si>
+    <t>bataoge</t>
+  </si>
+  <si>
+    <t>bataonge</t>
+  </si>
+  <si>
+    <t>kamzoriyaan</t>
+  </si>
+  <si>
+    <t>kamzori</t>
+  </si>
+  <si>
+    <t>kamzoriyon</t>
+  </si>
+  <si>
+    <t>kamzoriyo</t>
+  </si>
+  <si>
+    <t>laegi</t>
+  </si>
+  <si>
+    <t>laengi</t>
+  </si>
+  <si>
+    <t>laengy</t>
+  </si>
+  <si>
+    <t>laengyi</t>
+  </si>
+  <si>
+    <t>chalenge</t>
+  </si>
+  <si>
+    <t>chala</t>
+  </si>
+  <si>
+    <t>chalenga</t>
+  </si>
+  <si>
+    <t>chalega</t>
+  </si>
+  <si>
+    <t>chalegi</t>
+  </si>
+  <si>
+    <t>bajao</t>
+  </si>
+  <si>
+    <t>baja</t>
+  </si>
+  <si>
+    <t>behosha</t>
+  </si>
+  <si>
+    <t>behoshi</t>
+  </si>
+  <si>
+    <t>beintaha</t>
+  </si>
+  <si>
+    <t>beintahan</t>
+  </si>
+  <si>
+    <t>bekaara</t>
+  </si>
+  <si>
+    <t>bekari</t>
+  </si>
+  <si>
+    <t>bemana</t>
+  </si>
+  <si>
+    <t>bemani</t>
+  </si>
+  <si>
+    <t>beti</t>
+  </si>
+  <si>
+    <t>betiyan</t>
+  </si>
+  <si>
+    <t>betiyon</t>
+  </si>
+  <si>
+    <t>beton</t>
+  </si>
+  <si>
+    <t>kategi</t>
+  </si>
+  <si>
+    <t>kata</t>
+  </si>
+  <si>
+    <t>marvaega</t>
+  </si>
+  <si>
+    <t>marva</t>
+  </si>
+  <si>
+    <t>khaie</t>
+  </si>
+  <si>
+    <t>kha</t>
+  </si>
+  <si>
+    <t>bevafa</t>
+  </si>
+  <si>
+    <t>bevafae</t>
+  </si>
+  <si>
+    <t>bevafai</t>
+  </si>
+  <si>
+    <t>bevafaiya</t>
+  </si>
+  <si>
+    <t>bevafaiyaan</t>
+  </si>
+  <si>
+    <t>hadapne</t>
+  </si>
+  <si>
+    <t>hadapna</t>
+  </si>
+  <si>
+    <t>hadapney</t>
+  </si>
+  <si>
+    <t>hadapnein</t>
+  </si>
+  <si>
+    <t>haramkhori</t>
+  </si>
+  <si>
+    <t>haram</t>
+  </si>
+  <si>
+    <t>vidyashali</t>
+  </si>
+  <si>
+    <t>vidya</t>
+  </si>
+  <si>
+    <t>vidyavan</t>
+  </si>
+  <si>
+    <t>abhivyaktikaran</t>
+  </si>
+  <si>
+    <t>abhivyakta</t>
+  </si>
+  <si>
+    <t>acchai</t>
+  </si>
+  <si>
+    <t>achcche</t>
+  </si>
+  <si>
+    <t>guzarta</t>
+  </si>
+  <si>
+    <t>guzarne</t>
+  </si>
+  <si>
+    <t>guzarna</t>
+  </si>
+  <si>
+    <t>guzarin</t>
+  </si>
+  <si>
+    <t>guzari</t>
+  </si>
+  <si>
+    <t>guzaren</t>
+  </si>
+  <si>
+    <t>guzarenge</t>
+  </si>
+  <si>
+    <t>guzarenga</t>
+  </si>
+  <si>
+    <t>guzare</t>
+  </si>
+  <si>
+    <t>guzarate</t>
+  </si>
+  <si>
+    <t>guzarata</t>
+  </si>
+  <si>
+    <t>guzara</t>
+  </si>
+  <si>
+    <t>guzar</t>
+  </si>
+  <si>
+    <t>goojarna</t>
   </si>
 </sst>
 </file>
@@ -173,8 +374,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -195,10 +400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
+      <selection activeCell="B28" activeCellId="0" pane="topLeft" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -315,6 +520,259 @@
       <c r="B9" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test_clusters.xlsx
+++ b/test_clusters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>kamino</t>
   </si>
@@ -260,7 +260,40 @@
     <t>achcche</t>
   </si>
   <si>
-    <t>guzarta</t>
+    <t>zarurat</t>
+  </si>
+  <si>
+    <t>zaruratmand</t>
+  </si>
+  <si>
+    <t>jatila</t>
+  </si>
+  <si>
+    <t>jatilata</t>
+  </si>
+  <si>
+    <t>itihas</t>
+  </si>
+  <si>
+    <t>itihasik</t>
+  </si>
+  <si>
+    <t>pravahita</t>
+  </si>
+  <si>
+    <t>pravaha</t>
+  </si>
+  <si>
+    <t>visheshta</t>
+  </si>
+  <si>
+    <t>vishesh</t>
+  </si>
+  <si>
+    <t>adhunik</t>
+  </si>
+  <si>
+    <t>adhunikata</t>
   </si>
   <si>
     <t>guzarne</t>
@@ -287,19 +320,19 @@
     <t>guzare</t>
   </si>
   <si>
+    <t>guzara</t>
+  </si>
+  <si>
+    <t>guzar</t>
+  </si>
+  <si>
+    <t>goojarna</t>
+  </si>
+  <si>
     <t>guzarate</t>
   </si>
   <si>
     <t>guzarata</t>
-  </si>
-  <si>
-    <t>guzara</t>
-  </si>
-  <si>
-    <t>guzar</t>
-  </si>
-  <si>
-    <t>goojarna</t>
   </si>
 </sst>
 </file>
@@ -400,10 +433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B28" activeCellId="0" pane="topLeft" sqref="B28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="A35" activeCellId="0" pane="topLeft" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -734,44 +767,91 @@
       <c r="B29" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="B30" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="M29" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="0" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>94</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/test_clusters.xlsx
+++ b/test_clusters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>kamino</t>
   </si>
@@ -107,6 +107,15 @@
     <t>bataonge</t>
   </si>
   <si>
+    <t>bataengi</t>
+  </si>
+  <si>
+    <t>bategey</t>
+  </si>
+  <si>
+    <t>bataega</t>
+  </si>
+  <si>
     <t>kamzoriyaan</t>
   </si>
   <si>
@@ -143,7 +152,7 @@
     <t>chalega</t>
   </si>
   <si>
-    <t>chalegi</t>
+    <t>chalaegi</t>
   </si>
   <si>
     <t>bajao</t>
@@ -188,7 +197,7 @@
     <t>beton</t>
   </si>
   <si>
-    <t>kategi</t>
+    <t>kataegi</t>
   </si>
   <si>
     <t>kata</t>
@@ -302,9 +311,6 @@
     <t>guzarna</t>
   </si>
   <si>
-    <t>guzarin</t>
-  </si>
-  <si>
     <t>guzari</t>
   </si>
   <si>
@@ -323,9 +329,6 @@
     <t>guzara</t>
   </si>
   <si>
-    <t>guzar</t>
-  </si>
-  <si>
     <t>goojarna</t>
   </si>
   <si>
@@ -333,6 +336,15 @@
   </si>
   <si>
     <t>guzarata</t>
+  </si>
+  <si>
+    <t>bajatey</t>
+  </si>
+  <si>
+    <t>bajate</t>
+  </si>
+  <si>
+    <t>bajati</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
-      <selection activeCell="A35" activeCellId="0" pane="topLeft" sqref="A35"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100">
+      <selection activeCell="A20" activeCellId="0" pane="topLeft" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -559,299 +571,322 @@
       <c r="D9" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>105</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
